--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="102">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -145,10 +145,6 @@
   </si>
   <si>
     <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DECIMAL(10,0)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>YYYY/MM/DD</t>
@@ -648,6 +644,23 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未承認、1：承認済み、9：却下</t>
+    <rPh sb="2" eb="5">
+      <t>ミショウニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -746,10 +759,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1087,7 +1100,7 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1105,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1113,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1125,17 +1138,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1175,16 +1188,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -1196,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1206,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1249,7 +1262,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1276,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1288,17 +1301,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1338,16 +1351,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -1359,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1369,16 +1382,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1400,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -1431,10 +1444,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1455,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1464,10 +1477,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -1488,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1536,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1548,17 +1561,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1598,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1622,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1631,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1655,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1664,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1688,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.2">
@@ -1697,17 +1710,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1755,7 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1770,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1782,17 +1795,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1832,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -1853,7 +1866,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1863,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1894,10 +1907,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1928,28 +1941,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1983,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1983,7 +1996,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1994,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -2011,10 +2024,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2077,7 +2090,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2106,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -2118,17 +2131,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2164,20 +2177,20 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -2195,20 +2208,20 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -2226,20 +2239,20 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -2251,26 +2264,26 @@
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -2282,20 +2295,20 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -2319,20 +2332,20 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -2350,17 +2363,17 @@
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:A15" si="0">ROW()-7</f>
+        <f t="shared" ref="A14:A15" si="1">ROW()-7</f>
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2377,26 +2390,26 @@
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>88</v>
+      <c r="J14" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -2410,7 +2423,9 @@
       <c r="I15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2429,9 +2444,7 @@
   </sheetPr>
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2451,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2459,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -2471,17 +2484,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2521,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -2542,7 +2555,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2552,10 +2565,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -2576,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2588,13 +2601,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -2649,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2657,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -2669,17 +2682,17 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2719,16 +2732,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -2740,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2750,16 +2763,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -2781,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -2812,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -2836,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2848,13 +2861,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -560,10 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BLOB</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -592,10 +588,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>t_wallet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>t_wish</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,6 +653,10 @@
   </si>
   <si>
     <t>9,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_wallet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,7 +664,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +674,28 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -693,7 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,10 +763,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -761,6 +778,25 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1100,9 +1136,9 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
@@ -1113,76 +1149,76 @@
     <col min="10" max="10" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1196,8 +1232,8 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>97</v>
+      <c r="E8" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -1213,7 +1249,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1261,11 +1297,9 @@
   </sheetPr>
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
@@ -1276,76 +1310,76 @@
     <col min="10" max="10" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1359,8 +1393,8 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>97</v>
+      <c r="E8" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -1376,7 +1410,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1390,8 +1424,8 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>97</v>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1407,7 +1441,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -1438,7 +1472,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -1471,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f>ROW()-7</f>
         <v>5</v>
@@ -1521,11 +1555,9 @@
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
@@ -1536,76 +1568,76 @@
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1614,7 +1646,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1638,7 +1670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1671,7 +1703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -1704,7 +1736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="66">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -1718,7 +1750,7 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1733,7 +1765,7 @@
       <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1754,11 +1786,9 @@
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
@@ -1770,76 +1800,76 @@
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1853,7 +1883,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1870,7 +1900,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1901,7 +1931,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -1910,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1932,7 +1962,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -1946,8 +1976,8 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>101</v>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -1980,13 +2010,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="3" width="62" customWidth="1"/>
     <col min="4" max="4" width="21.21875" customWidth="1"/>
@@ -1994,30 +2022,33 @@
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -2031,7 +2062,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2042,18 +2073,23 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" s="14" customFormat="1">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2064,7 +2100,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2089,11 +2125,9 @@
   </sheetPr>
   <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -2106,76 +2140,76 @@
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
@@ -2189,7 +2223,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2206,7 +2240,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2237,7 +2271,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2251,7 +2285,7 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2268,7 +2302,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2282,7 +2316,7 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2299,12 +2333,12 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2330,21 +2364,21 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2361,19 +2395,19 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A15" si="1">ROW()-7</f>
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2390,23 +2424,23 @@
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2424,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2480,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -2459,76 +2493,76 @@
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -2559,7 +2593,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -2568,7 +2602,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -2592,7 +2626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -2606,8 +2640,8 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>101</v>
+      <c r="E10" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -2641,10 +2675,10 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -2657,91 +2691,91 @@
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>95</v>
+      <c r="E8" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -2757,7 +2791,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -2771,8 +2805,8 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>96</v>
+      <c r="E9" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -2788,7 +2822,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -2797,7 +2831,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -2819,7 +2853,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -2828,7 +2862,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -2852,7 +2886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f>ROW()-7</f>
         <v>5</v>
@@ -2866,8 +2900,8 @@
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>84</v>
+      <c r="E12" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="103">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>AutoIncrement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -632,9 +628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>currency_code</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -657,6 +650,20 @@
   </si>
   <si>
     <t>t_wallet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TYNYINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+  </si>
+  <si>
+    <t>TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -777,9 +784,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,6 +801,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1143,7 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1150,19 +1157,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1171,51 +1178,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1224,28 +1231,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1255,28 +1262,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1297,7 +1304,7 @@
   </sheetPr>
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1311,19 +1318,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1332,51 +1339,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1385,28 +1392,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1416,28 +1423,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1447,28 +1454,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1478,31 +1485,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1511,31 +1518,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
         <v>256</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1562,7 @@
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1569,19 +1576,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1590,51 +1597,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1643,31 +1650,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1676,31 +1683,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1709,31 +1716,31 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="66">
@@ -1742,31 +1749,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1793,9 @@
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1801,19 +1810,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1822,51 +1831,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1875,28 +1884,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1906,28 +1915,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1937,28 +1946,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1968,31 +1977,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2021,9 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2023,42 +2034,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
-        <v>59</v>
+      <c r="A2" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2073,21 +2084,21 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1">
-      <c r="A7" s="15">
+    <row r="7" spans="1:10" s="13" customFormat="1">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
@@ -2125,7 +2136,9 @@
   </sheetPr>
   <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2141,19 +2154,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2162,51 +2175,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2215,28 +2228,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2246,28 +2259,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2277,28 +2290,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2308,28 +2321,28 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -2339,28 +2352,28 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2370,28 +2383,28 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2401,31 +2414,31 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
@@ -2434,31 +2447,31 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2491,9 @@
   </sheetPr>
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2494,19 +2509,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2515,51 +2530,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2568,28 +2583,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2599,31 +2614,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2632,28 +2647,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2675,7 +2690,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2692,19 +2707,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2713,51 +2728,51 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2766,28 +2781,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2797,28 +2812,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2828,28 +2843,28 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2859,31 +2874,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2892,28 +2907,28 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1"/>
     </row>

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="106">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pay_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -532,26 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>child_comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attached_image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>parent_comment_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>approval</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -664,6 +640,42 @@
   </si>
   <si>
     <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attached_image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parent_comment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1143,7 +1155,7 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1161,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1169,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1182,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1231,16 +1243,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1252,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1262,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1274,7 +1286,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1283,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1322,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1330,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1343,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1392,16 +1404,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1413,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1423,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1444,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1454,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -1466,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1475,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1485,19 +1497,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1506,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1518,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -1530,7 +1542,7 @@
         <v>256</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1539,10 +1551,10 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1588,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1601,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1650,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -1671,10 +1683,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1683,10 +1695,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -1695,7 +1707,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1704,10 +1716,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1716,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1728,7 +1740,7 @@
         <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1737,10 +1749,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="66">
@@ -1749,19 +1761,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1770,10 +1782,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1822,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1835,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1884,16 +1896,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1905,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1915,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -1927,7 +1939,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1936,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1946,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1958,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1967,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1980,28 +1992,28 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2047,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2049,10 +2061,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>19</v>
@@ -2066,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2137,7 +2149,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C8" sqref="C8:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2158,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2166,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2179,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2228,16 +2240,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2262,7 +2274,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -2271,7 +2283,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -2280,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2290,19 +2302,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2311,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2321,19 +2333,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2342,7 +2354,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -2352,19 +2364,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2373,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2383,19 +2395,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -2404,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2414,19 +2426,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
@@ -2435,10 +2447,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
@@ -2447,19 +2459,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
@@ -2468,10 +2480,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2491,8 +2503,8 @@
   </sheetPr>
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2513,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2521,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2534,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2583,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -2604,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2614,10 +2626,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2635,10 +2647,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2650,16 +2662,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2668,7 +2680,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2711,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2719,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2732,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2781,16 +2793,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2802,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2812,16 +2824,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -2833,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2843,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2864,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2874,10 +2886,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2895,10 +2907,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2910,16 +2922,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2928,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1"/>
     </row>

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>m_virtual_currency</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_work_item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -625,57 +621,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TYNYINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attached_image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parent_comment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_virtual_currency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>t_wallet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TYNYINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>currency_id</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pay_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>work_item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>child_comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attached_image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>parent_comment_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>currency_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1155,7 +1155,7 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1243,16 +1243,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -1286,7 +1286,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1295,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1404,16 +1404,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1425,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1435,16 +1435,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1456,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -1478,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1497,19 +1497,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1518,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1533,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -1542,7 +1542,7 @@
         <v>256</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1551,10 +1551,10 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1574,9 @@
   </sheetPr>
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1600,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1665,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -1683,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
@@ -1707,7 +1709,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1716,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
@@ -1731,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1740,7 +1742,7 @@
         <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1749,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
@@ -1764,7 +1766,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -1773,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1782,10 +1784,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1896,16 +1898,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1939,7 +1941,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1948,7 +1950,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1961,7 +1963,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1970,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1979,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1998,10 +2000,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2010,7 +2012,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -2047,7 +2049,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2078,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2149,7 +2151,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2170,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2178,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2191,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2240,16 +2242,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2274,7 +2276,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -2283,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -2292,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2302,19 +2304,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2333,19 +2335,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2364,19 +2366,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2385,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2395,19 +2397,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -2416,7 +2418,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2426,19 +2428,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
@@ -2447,10 +2449,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
@@ -2459,19 +2461,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
@@ -2480,10 +2482,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2503,8 +2505,8 @@
   </sheetPr>
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2525,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2533,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2546,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2595,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -2616,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2629,7 +2631,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2647,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
@@ -2668,10 +2670,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2680,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2723,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2731,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2744,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2793,16 +2795,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2824,16 +2826,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -2845,7 +2847,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2858,7 +2860,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2876,7 +2878,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2889,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2907,7 +2909,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
@@ -2928,10 +2930,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2940,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1"/>
     </row>

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="109">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -296,10 +296,6 @@
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>division</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -675,7 +671,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>family_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>t_wallet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1155,7 +1167,9 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1173,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1181,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1194,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1243,16 +1257,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1264,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1286,7 +1300,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1295,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1316,7 +1330,9 @@
   </sheetPr>
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -1413,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1425,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1435,16 +1451,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1456,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1469,7 +1485,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1478,7 +1494,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1487,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1497,19 +1513,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1518,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1533,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -1542,7 +1558,7 @@
         <v>256</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1551,10 +1567,10 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1667,7 +1683,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -1685,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
@@ -1709,7 +1725,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1718,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
@@ -1733,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1742,7 +1758,7 @@
         <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1751,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
@@ -1766,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -1775,7 +1791,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1784,10 +1800,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1898,16 +1914,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1941,7 +1957,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1950,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1963,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1972,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1981,7 +1997,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2000,10 +2016,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2012,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -2049,7 +2065,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2080,10 +2096,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2172,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2180,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2193,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2242,16 +2258,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2276,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -2285,7 +2301,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -2294,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2304,19 +2320,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2335,19 +2351,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2366,19 +2382,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2387,7 +2403,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2397,19 +2413,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -2418,7 +2434,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2428,19 +2444,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
@@ -2449,10 +2465,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
@@ -2461,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
@@ -2482,10 +2498,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2505,8 +2521,8 @@
   </sheetPr>
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2527,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2535,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2548,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2618,7 +2634,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2631,7 +2647,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2649,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
@@ -2664,16 +2680,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2682,7 +2698,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2725,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2733,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2746,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2795,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2835,7 +2851,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -2847,7 +2863,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2860,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2878,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2891,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2909,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
@@ -2930,10 +2946,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2942,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="1"/>
     </row>

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="113">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -552,10 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>t_wish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>子供が購入したいもの</t>
     <rPh sb="0" eb="2">
       <t>コドモ</t>
@@ -596,10 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0：未承認、1：承認済み、9：却下</t>
     <rPh sb="2" eb="5">
       <t>ミショウニン</t>
@@ -688,6 +680,45 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_wish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入済みフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未購入、1：購入済み</t>
+    <rPh sb="2" eb="5">
+      <t>ミコウニュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currency_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyFlg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1167,7 +1198,7 @@
   </sheetPr>
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1300,7 +1331,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1309,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1429,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -1454,13 +1485,13 @@
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1472,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1485,7 +1516,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1494,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1503,7 +1534,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1516,16 +1547,16 @@
         <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1534,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
@@ -1558,7 +1589,7 @@
         <v>256</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -1567,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>48</v>
@@ -1618,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1683,7 +1714,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -1701,7 +1732,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
@@ -1725,7 +1756,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1734,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
@@ -1758,7 +1789,7 @@
         <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1767,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
@@ -1791,7 +1822,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -1800,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>58</v>
@@ -1957,7 +1988,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1966,7 +1997,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1979,7 +2010,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1988,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -1997,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2016,10 +2047,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2028,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -2167,7 +2198,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E15" sqref="E15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2261,7 +2292,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -2292,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -2301,7 +2332,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -2310,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2320,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
@@ -2332,7 +2363,7 @@
         <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2354,7 +2385,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
@@ -2363,7 +2394,7 @@
         <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2385,16 +2416,16 @@
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2403,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2416,7 +2447,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>75</v>
@@ -2425,7 +2456,7 @@
         <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
@@ -2434,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2447,7 +2478,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>76</v>
@@ -2456,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
@@ -2465,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>77</v>
@@ -2489,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
@@ -2498,10 +2529,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2634,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2647,7 +2678,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2665,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
@@ -2680,16 +2711,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2698,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2717,10 +2748,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2741,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2749,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2762,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2811,16 +2842,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2842,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
@@ -2851,10 +2882,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -2863,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2876,7 +2907,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2885,7 +2916,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
@@ -2894,7 +2925,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2907,7 +2938,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2916,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -2925,7 +2956,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
@@ -2946,10 +2977,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
@@ -2958,9 +2989,42 @@
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="労働テーブル" sheetId="4" r:id="rId6"/>
     <sheet name="お財布テーブル" sheetId="8" r:id="rId7"/>
     <sheet name="欲しいものテーブル" sheetId="9" r:id="rId8"/>
+    <sheet name="緯度テーブル" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="125">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -719,6 +720,71 @@
   </si>
   <si>
     <t>buyFlg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wallet_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お財布ID</t>
+    <rPh sb="1" eb="3">
+      <t>サイフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索日時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置ID</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>geometory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>geometory_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_geometry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_geometry</t>
+  </si>
+  <si>
+    <t>ユーザ位置</t>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_datetime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -764,7 +830,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,6 +840,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -857,6 +929,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1238,17 +1314,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -1401,17 +1477,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -1661,17 +1737,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -1895,17 +1971,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -2198,7 +2274,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:J15"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2239,17 +2315,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -2548,13 +2624,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2594,17 +2669,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -2639,35 +2714,35 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <f>ROW()-7</f>
+      <c r="A8" s="16">
+        <f t="shared" ref="A8" si="0">ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
@@ -2675,19 +2750,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -2698,9 +2773,7 @@
       <c r="I9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -2708,30 +2781,63 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2750,8 +2856,8 @@
   </sheetPr>
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2792,17 +2898,17 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
@@ -2838,7 +2944,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2869,7 +2975,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2900,7 +3006,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2931,7 +3037,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2964,7 +3070,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2995,7 +3101,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3034,4 +3140,229 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01.document/01.設計書/DB定義書.xlsx
+++ b/01.document/01.設計書/DB定義書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="欲しいものテーブル" sheetId="9" r:id="rId8"/>
     <sheet name="緯度テーブル" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="127">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -755,10 +755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>geometory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>geometory_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -774,25 +770,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_geometry</t>
-  </si>
-  <si>
-    <t>ユーザ位置</t>
-    <rPh sb="3" eb="5">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>search_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,7 +951,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -983,7 +995,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1058,6 +1070,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1093,6 +1122,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1278,18 +1324,18 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1306,11 +1352,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1326,7 +1372,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1389,7 +1435,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1441,18 +1487,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1469,11 +1515,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1489,7 +1535,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1552,7 +1598,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1583,7 +1629,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -1614,7 +1660,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -1647,7 +1693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f>ROW()-7</f>
         <v>5</v>
@@ -1701,18 +1747,18 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1729,11 +1775,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1749,7 +1795,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -1781,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -1814,7 +1860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -1847,7 +1893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -1880,7 +1926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="66">
+    <row r="11" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -1934,19 +1980,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +2000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1963,11 +2009,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +2029,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -2046,7 +2092,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -2077,7 +2123,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -2108,7 +2154,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -2162,23 +2208,24 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -2210,7 +2257,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2221,7 +2268,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2237,7 +2284,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2248,7 +2295,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2277,20 +2324,20 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2307,11 +2354,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2327,7 +2374,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2359,7 +2406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
@@ -2390,7 +2437,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2421,7 +2468,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2452,7 +2499,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2483,7 +2530,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2514,7 +2561,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2545,7 +2592,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A15" si="1">ROW()-7</f>
         <v>7</v>
@@ -2578,7 +2625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2631,20 +2678,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2661,11 +2708,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2681,7 +2728,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2713,7 +2760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <f t="shared" ref="A8" si="0">ROW()-7</f>
         <v>1</v>
@@ -2744,7 +2791,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -2775,7 +2822,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -2808,7 +2855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
@@ -2860,20 +2907,20 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -2881,7 +2928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2890,11 +2937,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +2957,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
         <v>1</v>
@@ -2973,7 +3020,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3004,7 +3051,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3035,7 +3082,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3068,7 +3115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3099,7 +3146,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3147,45 +3194,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -3201,7 +3248,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
@@ -3242,7 +3289,7 @@
         <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -3264,7 +3311,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
@@ -3295,7 +3342,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
@@ -3304,7 +3351,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>116</v>
@@ -3326,36 +3373,67 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <f>ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
